--- a/mtg debt.xlsx
+++ b/mtg debt.xlsx
@@ -4,23 +4,83 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Debt" sheetId="2" r:id="rId1"/>
-    <sheet name="Payouts" sheetId="3" r:id="rId2"/>
-    <sheet name="Completed" sheetId="4" r:id="rId3"/>
+    <sheet name="Payouts" sheetId="3" r:id="rId1"/>
+    <sheet name="Completed" sheetId="4" r:id="rId2"/>
+    <sheet name="Notes" sheetId="5" r:id="rId3"/>
+    <sheet name="Calendar" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="debt">Debt!$B:$B</definedName>
+    <definedName name="debt">#REF!</definedName>
     <definedName name="paid">Completed!$C:$C</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+I was nervous doing this but somehow I did it. I had good opportunity and lucky I guess</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+20/7/15
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>6.65 Dramoka dragon</t>
   </si>
@@ -85,7 +145,55 @@
     <t>Ask Anne question exactly 2 of 3 days on my Holiday</t>
   </si>
   <si>
-    <t>bonus</t>
+    <t>$32 Star Realms</t>
+  </si>
+  <si>
+    <t>This seems so impossible</t>
+  </si>
+  <si>
+    <t>This seems very hard</t>
+  </si>
+  <si>
+    <t>Don't get this when autopay</t>
+  </si>
+  <si>
+    <t>Ask Anne Thai language q on 2 out of 2 days this weekend</t>
+  </si>
+  <si>
+    <t>Ask Anne when the boss and another is at the counter</t>
+  </si>
+  <si>
+    <t>auto pay 2x</t>
+  </si>
+  <si>
+    <t>auto pay 6x</t>
+  </si>
+  <si>
+    <t>Thai language question (Dew)</t>
+  </si>
+  <si>
+    <t>Ask where she comes from (Dew)</t>
+  </si>
+  <si>
+    <t>Is it possible that having it points based increases my odds of success?</t>
+  </si>
+  <si>
+    <t>I got a 23 points in about 2 days last weekend.</t>
+  </si>
+  <si>
+    <t>Ask Anne about soy milk button</t>
+  </si>
+  <si>
+    <t>Ask name and ask where she's from and ask Anne question</t>
+  </si>
+  <si>
+    <t>Ask Anne question about busy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The second question was about Pi and if it is used for older people. Also asked if she was older than 30. She's so cute. </t>
+  </si>
+  <si>
+    <t>Came at 12-1pm was still busy</t>
   </si>
 </sst>
 </file>
@@ -95,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,18 +212,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,11 +259,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,149 +569,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="57.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -589,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -597,37 +629,45 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
+      <c r="A7" t="s">
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
+      <c r="B10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -635,12 +675,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,6 +696,13 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <f>SUM(B:B)</f>
+        <v>77</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -675,7 +722,7 @@
       </c>
       <c r="L2">
         <f>SUM(C:C)</f>
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -707,7 +754,219 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>42198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>42199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>42201</v>
+      </c>
+      <c r="B4">
+        <f>20+1</f>
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>42202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>42203</v>
+      </c>
+      <c r="B6">
+        <f>2+2+1</f>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>42204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>42205</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>42206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>42207</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mtg debt.xlsx
+++ b/mtg debt.xlsx
@@ -1,86 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Payouts" sheetId="3" r:id="rId1"/>
-    <sheet name="Completed" sheetId="4" r:id="rId2"/>
+    <sheet name="Debt" sheetId="4" r:id="rId2"/>
     <sheet name="Notes" sheetId="5" r:id="rId3"/>
     <sheet name="Calendar" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="debt">#REF!</definedName>
-    <definedName name="paid">Completed!$C:$C</definedName>
+    <definedName name="paid">Debt!$C:$C</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-I was nervous doing this but somehow I did it. I had good opportunity and lucky I guess</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-20/7/15
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>6.65 Dramoka dragon</t>
   </si>
@@ -97,9 +38,6 @@
     <t>Thai language question</t>
   </si>
   <si>
-    <t>Korpkunkap pee Anne</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ask for language exchange </t>
   </si>
   <si>
@@ -133,9 +71,6 @@
     <t>Ask new cute massage Thai girl Saturday a Thai question</t>
   </si>
   <si>
-    <t>Ask Anne about soy milk button (3pm on Thursday she was leaving)</t>
-  </si>
-  <si>
     <t>$10 mtg cards (Edric)</t>
   </si>
   <si>
@@ -154,9 +89,6 @@
     <t>This seems very hard</t>
   </si>
   <si>
-    <t>Don't get this when autopay</t>
-  </si>
-  <si>
     <t>Ask Anne Thai language q on 2 out of 2 days this weekend</t>
   </si>
   <si>
@@ -169,12 +101,6 @@
     <t>auto pay 6x</t>
   </si>
   <si>
-    <t>Thai language question (Dew)</t>
-  </si>
-  <si>
-    <t>Ask where she comes from (Dew)</t>
-  </si>
-  <si>
     <t>Is it possible that having it points based increases my odds of success?</t>
   </si>
   <si>
@@ -194,6 +120,36 @@
   </si>
   <si>
     <t>Came at 12-1pm was still busy</t>
+  </si>
+  <si>
+    <t>Double Anne question Saturday and Sunday consecutive</t>
+  </si>
+  <si>
+    <t>korpkunkap nawng Anne</t>
+  </si>
+  <si>
+    <t>Ask Anne if I should call her nawng</t>
+  </si>
+  <si>
+    <t>Find new target</t>
+  </si>
+  <si>
+    <t>Roll for the galaxy</t>
+  </si>
+  <si>
+    <t>x30</t>
+  </si>
+  <si>
+    <t>Race for the galaxy</t>
+  </si>
+  <si>
+    <t>x20</t>
+  </si>
+  <si>
+    <t>Fleecemane lion and some more</t>
+  </si>
+  <si>
+    <t>x7</t>
   </si>
 </sst>
 </file>
@@ -203,26 +159,13 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -264,7 +207,7 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -325,7 +268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,7 +303,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -569,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,93 +524,112 @@
     <col min="2" max="2" width="57.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>80</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -676,11 +638,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,13 +653,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L1">
         <f>SUM(B:B)</f>
@@ -711,18 +670,12 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
       <c r="K2" t="s">
         <v>2</v>
       </c>
       <c r="L2">
-        <f>SUM(C:C)</f>
-        <v>30</v>
+        <f>SUM(Calendar!B:B)</f>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -732,12 +685,6 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -746,86 +693,50 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -833,16 +744,39 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -851,19 +785,19 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -873,10 +807,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,7 +842,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -925,7 +859,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -941,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,18 +888,62 @@
         <v>42207</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <f>80+1</f>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>42208</v>
+      </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>42209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>42210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>42211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>42212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>42213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>42214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>42215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>42216</v>
       </c>
     </row>
   </sheetData>

--- a/mtg debt.xlsx
+++ b/mtg debt.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Payouts" sheetId="3" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <definedName name="debt">#REF!</definedName>
     <definedName name="paid">Debt!$C:$C</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>6.65 Dramoka dragon</t>
   </si>
@@ -146,10 +146,7 @@
     <t>x20</t>
   </si>
   <si>
-    <t>Fleecemane lion and some more</t>
-  </si>
-  <si>
-    <t>x7</t>
+    <t>scryland and some more $15</t>
   </si>
 </sst>
 </file>
@@ -268,7 +265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,7 +300,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +657,7 @@
       </c>
       <c r="L1">
         <f>SUM(B:B)</f>
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -770,8 +767,8 @@
       <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
-        <v>42</v>
+      <c r="B14">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -809,7 +806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/mtg debt.xlsx
+++ b/mtg debt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Payouts" sheetId="3" r:id="rId1"/>
@@ -20,8 +20,68 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Zantac orange juice hotdog breakfast. No caffeine. Was tired though. Very brave. Asked anne quwstion on approach
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This is the first time I got blocked. It completely recks your ego and I thought she wanted me to ask for number WTF?
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>6.65 Dramoka dragon</t>
   </si>
@@ -68,9 +128,6 @@
     <t>$20 MTG Cards (3 manamorphose)</t>
   </si>
   <si>
-    <t>Ask new cute massage Thai girl Saturday a Thai question</t>
-  </si>
-  <si>
     <t>$10 mtg cards (Edric)</t>
   </si>
   <si>
@@ -143,10 +200,25 @@
     <t>Race for the galaxy</t>
   </si>
   <si>
-    <t>x20</t>
-  </si>
-  <si>
     <t>scryland and some more $15</t>
+  </si>
+  <si>
+    <t>Ask question of Anne</t>
+  </si>
+  <si>
+    <t>Ask Dewy for language exchange. Asked anne question and also asked to call her naawng also talked to massage girl</t>
+  </si>
+  <si>
+    <t>Ask anne question on approach</t>
+  </si>
+  <si>
+    <t>Ego restored after that massive blow from getting blocked on LINE</t>
+  </si>
+  <si>
+    <t>Anne 2 questions. Her body language not that good and she doesn't laugh at my dumb jokes. She seems way happier to see Em. Even laughs when he comes and is excited.</t>
+  </si>
+  <si>
+    <t>Ask Question of someone less attractive than Sab</t>
   </si>
 </sst>
 </file>
@@ -156,7 +228,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +243,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -509,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -540,13 +625,13 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -575,31 +660,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
+      <c r="A8" t="s">
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
+      <c r="A9">
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -607,15 +692,15 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -623,10 +708,34 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>500</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -638,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +766,7 @@
       </c>
       <c r="L1">
         <f>SUM(B:B)</f>
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -672,7 +781,7 @@
       </c>
       <c r="L2">
         <f>SUM(Calendar!B:B)</f>
-        <v>108</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -693,7 +802,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -701,7 +810,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -749,23 +858,23 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -789,12 +898,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -803,11 +912,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,7 +948,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -856,7 +965,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -872,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -889,10 +998,10 @@
         <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -900,7 +1009,7 @@
         <v>42208</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -912,11 +1021,25 @@
       <c r="A13" s="4">
         <v>42210</v>
       </c>
+      <c r="B13">
+        <f>2+10+2+2+5</f>
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>42211</v>
       </c>
+      <c r="B14">
+        <f>2+10+1+5+5+2</f>
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -946,5 +1069,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/mtg debt.xlsx
+++ b/mtg debt.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Payouts" sheetId="3" r:id="rId1"/>
     <sheet name="Debt" sheetId="4" r:id="rId2"/>
     <sheet name="Notes" sheetId="5" r:id="rId3"/>
-    <sheet name="Calendar" sheetId="6" r:id="rId4"/>
+    <sheet name="Calendar (2)" sheetId="7" r:id="rId4"/>
+    <sheet name="Calendar" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="debt" localSheetId="3">#REF!</definedName>
     <definedName name="debt">#REF!</definedName>
     <definedName name="paid">Debt!$C:$C</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -26,7 +28,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0">
+    <comment ref="C13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>6.65 Dramoka dragon</t>
   </si>
@@ -219,6 +221,12 @@
   </si>
   <si>
     <t>Ask Question of someone less attractive than Sab</t>
+  </si>
+  <si>
+    <t>Summary: After 2 weeks I got blocked; completely misread someone. Also got rejected asking lang question. Try again but this time we track social interaction</t>
+  </si>
+  <si>
+    <t>Roughly about 150 points disaster. We'll see if I can beat that record.</t>
   </si>
 </sst>
 </file>
@@ -350,7 +358,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,7 +393,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -596,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +756,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,11 +920,115 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>42214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>42215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>42216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>42218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>42219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>42220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>42221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>42222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>42223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>42224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>42225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>42226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>42227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>42228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>42229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>42230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,19 +1163,29 @@
         <v>42213</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>42214</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>42215</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>42216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/mtg debt.xlsx
+++ b/mtg debt.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Payouts" sheetId="3" r:id="rId1"/>
-    <sheet name="Debt" sheetId="4" r:id="rId2"/>
-    <sheet name="Notes" sheetId="5" r:id="rId3"/>
-    <sheet name="Calendar (2)" sheetId="7" r:id="rId4"/>
-    <sheet name="Calendar" sheetId="6" r:id="rId5"/>
+    <sheet name="Debt (2)" sheetId="8" r:id="rId1"/>
+    <sheet name="Calendar (2)" sheetId="7" r:id="rId2"/>
+    <sheet name="Payouts" sheetId="3" r:id="rId3"/>
+    <sheet name="Debt" sheetId="4" r:id="rId4"/>
+    <sheet name="Notes" sheetId="5" r:id="rId5"/>
+    <sheet name="Calendar" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="debt" localSheetId="3">#REF!</definedName>
+    <definedName name="debt" localSheetId="1">#REF!</definedName>
+    <definedName name="debt" localSheetId="0">#REF!</definedName>
     <definedName name="debt">#REF!</definedName>
+    <definedName name="paid" localSheetId="0">'Debt (2)'!$C:$C</definedName>
     <definedName name="paid">Debt!$C:$C</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -28,7 +31,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0">
+    <comment ref="C13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>6.65 Dramoka dragon</t>
   </si>
@@ -97,15 +100,6 @@
     <t>atarkas command $8</t>
   </si>
   <si>
-    <t>Thai language question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ask for language exchange </t>
-  </si>
-  <si>
-    <t>Ask if any friends want to do language exchange</t>
-  </si>
-  <si>
     <t>DEBT</t>
   </si>
   <si>
@@ -118,12 +112,6 @@
     <t>$14 planeswalker</t>
   </si>
   <si>
-    <t>Ask where she comes from</t>
-  </si>
-  <si>
-    <t>Ask for name</t>
-  </si>
-  <si>
     <t>$18 Lost Legacy</t>
   </si>
   <si>
@@ -148,15 +136,6 @@
     <t>This seems very hard</t>
   </si>
   <si>
-    <t>Ask Anne Thai language q on 2 out of 2 days this weekend</t>
-  </si>
-  <si>
-    <t>Ask Anne when the boss and another is at the counter</t>
-  </si>
-  <si>
-    <t>auto pay 2x</t>
-  </si>
-  <si>
     <t>auto pay 6x</t>
   </si>
   <si>
@@ -181,18 +160,6 @@
     <t>Came at 12-1pm was still busy</t>
   </si>
   <si>
-    <t>Double Anne question Saturday and Sunday consecutive</t>
-  </si>
-  <si>
-    <t>korpkunkap nawng Anne</t>
-  </si>
-  <si>
-    <t>Ask Anne if I should call her nawng</t>
-  </si>
-  <si>
-    <t>Find new target</t>
-  </si>
-  <si>
     <t>Roll for the galaxy</t>
   </si>
   <si>
@@ -205,28 +172,28 @@
     <t>scryland and some more $15</t>
   </si>
   <si>
-    <t>Ask question of Anne</t>
-  </si>
-  <si>
     <t>Ask Dewy for language exchange. Asked anne question and also asked to call her naawng also talked to massage girl</t>
   </si>
   <si>
-    <t>Ask anne question on approach</t>
-  </si>
-  <si>
-    <t>Ego restored after that massive blow from getting blocked on LINE</t>
-  </si>
-  <si>
     <t>Anne 2 questions. Her body language not that good and she doesn't laugh at my dumb jokes. She seems way happier to see Em. Even laughs when he comes and is excited.</t>
   </si>
   <si>
-    <t>Ask Question of someone less attractive than Sab</t>
-  </si>
-  <si>
     <t>Summary: After 2 weeks I got blocked; completely misread someone. Also got rejected asking lang question. Try again but this time we track social interaction</t>
   </si>
   <si>
     <t>Roughly about 150 points disaster. We'll see if I can beat that record.</t>
+  </si>
+  <si>
+    <t>$8 3 washouts</t>
+  </si>
+  <si>
+    <t>Display skill to Anne (sentence similar to complexity Bben soy milk bpa)</t>
+  </si>
+  <si>
+    <t>Higher complexity sentence</t>
+  </si>
+  <si>
+    <t>Lower complexity sentence</t>
   </si>
 </sst>
 </file>
@@ -358,7 +325,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,7 +360,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -602,161 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>500</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,22 +583,22 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L1">
         <f>SUM(B:B)</f>
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
         <v>2</v>
@@ -792,101 +608,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-    </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -894,32 +617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
@@ -1023,12 +721,235 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1">
+        <f>SUM(B:B)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <f>SUM(Calendar!B:B)</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +981,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1077,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1093,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1110,10 +1031,10 @@
         <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1121,7 +1042,7 @@
         <v>42208</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1138,7 +1059,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1150,7 +1071,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1180,12 +1101,12 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/mtg debt.xlsx
+++ b/mtg debt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Debt (2)" sheetId="8" r:id="rId1"/>
@@ -26,6 +26,66 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Repeated mai mee almond milk…BOOOO.
+Too chicken shit to make more Thai sentences.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Zantac wasn't worth it
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
@@ -77,7 +137,7 @@
           </rPr>
           <t xml:space="preserve">
 This is the first time I got blocked. It completely recks your ego and I thought she wanted me to ask for number WTF?
-</t>
+I felt terrible but next Saturday I made progress with Anne so I don't care as much anymore if at all.</t>
         </r>
       </text>
     </comment>
@@ -86,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>6.65 Dramoka dragon</t>
   </si>
@@ -194,6 +254,27 @@
   </si>
   <si>
     <t>Lower complexity sentence</t>
+  </si>
+  <si>
+    <t>Ask question</t>
+  </si>
+  <si>
+    <t>minusInf</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>No alcohol 1 question.</t>
+  </si>
+  <si>
+    <t>Good body language from Anne. This alone beats Calendar 1</t>
+  </si>
+  <si>
+    <t>How do I ask for someone's phone number</t>
+  </si>
+  <si>
+    <t>How come you call me Josh?</t>
   </si>
 </sst>
 </file>
@@ -572,7 +653,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +671,7 @@
       </c>
       <c r="L1">
         <f>SUM(B:B)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -604,8 +685,16 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <f>SUM(Calendar!B:B)</f>
-        <v>154</v>
+        <f>SUM('Calendar (2)'!B:B)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -618,11 +707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,82 +719,100 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>42214</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>42215</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>42216</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>42217</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>42218</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>42219</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>42220</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>42221</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>42222</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>42223</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>42224</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>42225</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>42226</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>42227</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>42228</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>42229</v>
       </c>
@@ -718,15 +825,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,6 +879,27 @@
         <v>35</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -781,7 +910,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,9 +941,8 @@
       <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="L2">
-        <f>SUM(Calendar!B:B)</f>
-        <v>154</v>
+      <c r="L2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -949,7 +1077,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/mtg debt.xlsx
+++ b/mtg debt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Debt (2)" sheetId="8" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>6.65 Dramoka dragon</t>
   </si>
@@ -275,6 +275,15 @@
   </si>
   <si>
     <t>How come you call me Josh?</t>
+  </si>
+  <si>
+    <t>Speak to Thai language exchange partner (max 1 pt per day)</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>x10</t>
   </si>
 </sst>
 </file>
@@ -653,7 +662,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +695,7 @@
       </c>
       <c r="L2">
         <f>SUM('Calendar (2)'!B:B)</f>
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -695,6 +704,14 @@
       </c>
       <c r="B3">
         <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -710,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,10 +783,19 @@
       <c r="A6" s="3">
         <v>42219</v>
       </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>42220</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -831,10 +857,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,7 +907,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -898,6 +924,14 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/mtg debt.xlsx
+++ b/mtg debt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Debt (2)" sheetId="8" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>6.65 Dramoka dragon</t>
   </si>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>San Juan</t>
-  </si>
-  <si>
-    <t>x10</t>
   </si>
 </sst>
 </file>
@@ -661,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +677,7 @@
       </c>
       <c r="L1">
         <f>SUM(B:B)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -695,7 +692,7 @@
       </c>
       <c r="L2">
         <f>SUM('Calendar (2)'!B:B)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -710,8 +707,8 @@
       <c r="A4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
-        <v>45</v>
+      <c r="B4">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -728,7 +725,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,10 +799,16 @@
       <c r="A8" s="3">
         <v>42221</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>42222</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,7 +862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/mtg debt.xlsx
+++ b/mtg debt.xlsx
@@ -81,6 +81,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+m0 negative body language from all Thais. Anne still gave good smile though was reaction. She folded her arms at me…
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -146,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>6.65 Dramoka dragon</t>
   </si>
@@ -274,13 +299,22 @@
     <t>How do I ask for someone's phone number</t>
   </si>
   <si>
-    <t>How come you call me Josh?</t>
-  </si>
-  <si>
-    <t>Speak to Thai language exchange partner (max 1 pt per day)</t>
-  </si>
-  <si>
     <t>San Juan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innovation </t>
+  </si>
+  <si>
+    <t>Bonus + low complex. M0 at home but was temp10 for a few minutes.</t>
+  </si>
+  <si>
+    <t>Show bravery weekend to Anne</t>
+  </si>
+  <si>
+    <t>Show bravery to Anne this Friday</t>
+  </si>
+  <si>
+    <t>Courser</t>
   </si>
 </sst>
 </file>
@@ -659,7 +693,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +711,7 @@
       </c>
       <c r="L1">
         <f>SUM(B:B)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -692,7 +726,7 @@
       </c>
       <c r="L2">
         <f>SUM('Calendar (2)'!B:B)</f>
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -705,9 +739,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
         <v>10</v>
       </c>
     </row>
@@ -725,7 +775,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,15 +865,31 @@
       <c r="A10" s="3">
         <v>42223</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>42224</v>
       </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>42225</v>
+      </c>
+      <c r="B12">
+        <f>70+5</f>
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -863,7 +929,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,16 +991,19 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1000</v>
+      </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1114,7 +1183,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/mtg debt.xlsx
+++ b/mtg debt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Debt (2)" sheetId="8" r:id="rId1"/>
@@ -26,91 +26,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Repeated mai mee almond milk…BOOOO.
-Too chicken shit to make more Thai sentences.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Zantac wasn't worth it
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-m0 negative body language from all Thais. Anne still gave good smile though was reaction. She folded her arms at me…
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
@@ -166,12 +81,87 @@
         </r>
       </text>
     </comment>
+    <comment ref="C22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Repeated mai mee almond milk…BOOOO.
+Too chicken shit to make more Thai sentences.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Zantac wasn't worth it
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+m0 negative body language from all Thais. Anne still gave good smile though was reaction. She folded her arms at me…
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>6.65 Dramoka dragon</t>
   </si>
@@ -206,24 +196,12 @@
     <t>$10 mtg cards (Edric)</t>
   </si>
   <si>
-    <t>Ask anne question three days in row Mon Tue Wed (holiday)</t>
-  </si>
-  <si>
     <t>Ask Anne question exactly 2 of 3 days on my Holiday</t>
   </si>
   <si>
     <t>$32 Star Realms</t>
   </si>
   <si>
-    <t>This seems so impossible</t>
-  </si>
-  <si>
-    <t>This seems very hard</t>
-  </si>
-  <si>
-    <t>auto pay 6x</t>
-  </si>
-  <si>
     <t>Is it possible that having it points based increases my odds of success?</t>
   </si>
   <si>
@@ -263,21 +241,12 @@
     <t>Anne 2 questions. Her body language not that good and she doesn't laugh at my dumb jokes. She seems way happier to see Em. Even laughs when he comes and is excited.</t>
   </si>
   <si>
-    <t>Summary: After 2 weeks I got blocked; completely misread someone. Also got rejected asking lang question. Try again but this time we track social interaction</t>
-  </si>
-  <si>
-    <t>Roughly about 150 points disaster. We'll see if I can beat that record.</t>
-  </si>
-  <si>
     <t>$8 3 washouts</t>
   </si>
   <si>
     <t>Display skill to Anne (sentence similar to complexity Bben soy milk bpa)</t>
   </si>
   <si>
-    <t>Higher complexity sentence</t>
-  </si>
-  <si>
     <t>Lower complexity sentence</t>
   </si>
   <si>
@@ -311,10 +280,76 @@
     <t>Show bravery weekend to Anne</t>
   </si>
   <si>
-    <t>Show bravery to Anne this Friday</t>
-  </si>
-  <si>
     <t>Courser</t>
+  </si>
+  <si>
+    <t>Citadels</t>
+  </si>
+  <si>
+    <t>Very complex Thai sentence to Anne. But Sunisa isn't good at translating.</t>
+  </si>
+  <si>
+    <t>Splendor</t>
+  </si>
+  <si>
+    <t>x10</t>
+  </si>
+  <si>
+    <t>x100</t>
+  </si>
+  <si>
+    <t>Libertalia</t>
+  </si>
+  <si>
+    <t>x200</t>
+  </si>
+  <si>
+    <t>Get name of any of top 2 Thai girls in rest</t>
+  </si>
+  <si>
+    <t>Ask language question of either Top 2 Thai girls on rest</t>
+  </si>
+  <si>
+    <t>Show bravery to Anne on weekday</t>
+  </si>
+  <si>
+    <t>Simple Thai sentence to Anne</t>
+  </si>
+  <si>
+    <t>Thai resto goddess has dinner with me</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>Anne asks for my number</t>
+  </si>
+  <si>
+    <t>Hangout with Anne outside of work</t>
+  </si>
+  <si>
+    <t>50K</t>
+  </si>
+  <si>
+    <t>See Thai goddess and enter resto get served by her</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>Rejected by Ann…</t>
+  </si>
+  <si>
+    <t>10B</t>
+  </si>
+  <si>
+    <t>Slow Rejection by Ann</t>
+  </si>
+  <si>
+    <t>BET IS 500 for 2 weeks</t>
+  </si>
+  <si>
+    <t>Rejected by Ann. Pam's sister in law. Couldn't get shit.</t>
   </si>
 </sst>
 </file>
@@ -690,15 +725,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -711,12 +746,12 @@
       </c>
       <c r="L1">
         <f>SUM(B:B)</f>
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -726,12 +761,12 @@
       </c>
       <c r="L2">
         <f>SUM('Calendar (2)'!B:B)</f>
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -739,7 +774,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -747,22 +782,67 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -771,11 +851,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,153 +863,107 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>42214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42233</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>42215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>42216</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>42217</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>42218</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>42236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>42237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>42219</v>
-      </c>
-      <c r="B6" s="2">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>42220</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>42221</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>42222</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>42223</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>42224</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>42225</v>
-      </c>
-      <c r="B12">
-        <f>70+5</f>
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>42243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>42244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>42226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>42227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>42228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>42229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>42230</v>
+        <v>42248</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,72 +972,84 @@
     <col min="2" max="2" width="57.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1000</v>
       </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1048,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1069,7 +1115,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -1125,15 +1171,15 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -1141,7 +1187,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -1165,12 +1211,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1180,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1261,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1232,7 +1278,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1248,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1265,10 +1311,10 @@
         <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1276,7 +1322,7 @@
         <v>42208</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1293,7 +1339,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1305,7 +1351,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,14 +1379,149 @@
         <v>42216</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>42214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>42215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>42216</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>42217</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>42218</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>31</v>
+      <c r="A25" s="3">
+        <v>42219</v>
+      </c>
+      <c r="B25" s="2">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>42220</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>42221</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>42222</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>42223</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>42224</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>42225</v>
+      </c>
+      <c r="B31">
+        <f>70+5</f>
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>42226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>42227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>42228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>42229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>42230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>42231</v>
+      </c>
+      <c r="B37">
+        <v>1000</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/mtg debt.xlsx
+++ b/mtg debt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Debt (2)" sheetId="8" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>6.65 Dramoka dragon</t>
   </si>
@@ -292,12 +292,6 @@
     <t>Splendor</t>
   </si>
   <si>
-    <t>x10</t>
-  </si>
-  <si>
-    <t>x100</t>
-  </si>
-  <si>
     <t>Libertalia</t>
   </si>
   <si>
@@ -316,21 +310,6 @@
     <t>Simple Thai sentence to Anne</t>
   </si>
   <si>
-    <t>Thai resto goddess has dinner with me</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>Anne asks for my number</t>
-  </si>
-  <si>
-    <t>Hangout with Anne outside of work</t>
-  </si>
-  <si>
-    <t>50K</t>
-  </si>
-  <si>
     <t>See Thai goddess and enter resto get served by her</t>
   </si>
   <si>
@@ -350,6 +329,33 @@
   </si>
   <si>
     <t>Rejected by Ann. Pam's sister in law. Couldn't get shit.</t>
+  </si>
+  <si>
+    <t>50x</t>
+  </si>
+  <si>
+    <t>50% splendor</t>
+  </si>
+  <si>
+    <t>Talked to Anne in the morning. Lots of luck. Body lang neutral. But there were some smiles and I think she talked a bit when I went for OJ.</t>
+  </si>
+  <si>
+    <t>Ask Thai waitress a Thai question (top 2 hot ones)</t>
+  </si>
+  <si>
+    <t>Ask Thai waitress name (top 2 hot ones)</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>SKILL</t>
+  </si>
+  <si>
+    <t>Talked to waitress. She is so kind and easy to talk to. No nervousness..</t>
+  </si>
+  <si>
+    <t>Evolution</t>
   </si>
 </sst>
 </file>
@@ -415,12 +421,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,34 +744,37 @@
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="L1">
+      <c r="K1">
         <f>SUM(B:B)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>2</v>
       </c>
-      <c r="L2">
+      <c r="K2">
         <f>SUM('Calendar (2)'!B:B)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -772,7 +782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -780,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -788,7 +798,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -796,52 +806,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -854,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +865,7 @@
         <v>42233</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -876,10 +873,10 @@
         <v>42234</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -896,10 +893,22 @@
       <c r="A5" s="3">
         <v>42237</v>
       </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>42238</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -960,10 +969,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:B9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1010,7 @@
         <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1009,7 +1018,7 @@
         <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1017,7 +1026,7 @@
         <v>500</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1025,7 +1034,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1033,22 +1042,38 @@
         <v>1000</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
         <v>59</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
         <v>60</v>
       </c>
     </row>

--- a/mtg debt.xlsx
+++ b/mtg debt.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Debt (2)" sheetId="8" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <definedName name="debt" localSheetId="1">#REF!</definedName>
     <definedName name="debt" localSheetId="0">#REF!</definedName>
     <definedName name="debt">#REF!</definedName>
-    <definedName name="paid" localSheetId="0">'Debt (2)'!$C:$C</definedName>
+    <definedName name="paid" localSheetId="0">'Debt (2)'!#REF!</definedName>
     <definedName name="paid">Debt!$C:$C</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -31,7 +31,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0">
+    <comment ref="C13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0">
+    <comment ref="C22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0">
+    <comment ref="C24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
+    <comment ref="B30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>6.65 Dramoka dragon</t>
   </si>
@@ -334,28 +334,25 @@
     <t>50x</t>
   </si>
   <si>
-    <t>50% splendor</t>
-  </si>
-  <si>
-    <t>Talked to Anne in the morning. Lots of luck. Body lang neutral. But there were some smiles and I think she talked a bit when I went for OJ.</t>
-  </si>
-  <si>
     <t>Ask Thai waitress a Thai question (top 2 hot ones)</t>
   </si>
   <si>
-    <t>Ask Thai waitress name (top 2 hot ones)</t>
-  </si>
-  <si>
-    <t>1B</t>
-  </si>
-  <si>
-    <t>SKILL</t>
-  </si>
-  <si>
-    <t>Talked to waitress. She is so kind and easy to talk to. No nervousness..</t>
-  </si>
-  <si>
     <t>Evolution</t>
+  </si>
+  <si>
+    <t>Show bravery to Anne on weekday; body lang was neutral</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>Ask Thai waitress a Thai question</t>
+  </si>
+  <si>
+    <t>Ask Thai waitress name</t>
+  </si>
+  <si>
+    <t>Theory having these massive payouts for difficult ones increases prob that I do it.</t>
   </si>
 </sst>
 </file>
@@ -421,13 +418,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,7 +519,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -732,9 +728,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -744,37 +740,34 @@
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="K1">
+      <c r="J1">
         <f>SUM(B:B)</f>
         <v>680</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="K2">
+      <c r="J2">
         <f>SUM('Calendar (2)'!B:B)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -782,7 +775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -790,7 +783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -798,7 +791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -806,7 +799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -814,18 +807,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
       <c r="B8">
         <v>100</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -833,9 +823,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>500</v>
@@ -893,11 +883,11 @@
       <c r="A5" s="3">
         <v>42237</v>
       </c>
-      <c r="B5" t="s">
-        <v>57</v>
+      <c r="B5">
+        <v>500</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -905,10 +895,10 @@
         <v>42238</v>
       </c>
       <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
         <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -969,10 +959,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,15 +971,18 @@
     <col min="2" max="2" width="57.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
@@ -997,15 +990,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200</v>
       </c>
@@ -1013,7 +1006,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200</v>
       </c>
@@ -1021,15 +1014,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1037,7 +1030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -1045,7 +1038,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1053,7 +1046,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1061,20 +1054,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/mtg debt.xlsx
+++ b/mtg debt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Debt (2)" sheetId="8" r:id="rId1"/>
@@ -26,6 +26,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extremely negative body language. Started moving away from me to try and end the conversation… A is such a bad investment. M0.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
@@ -161,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>6.65 Dramoka dragon</t>
   </si>
@@ -313,16 +347,7 @@
     <t>See Thai goddess and enter resto get served by her</t>
   </si>
   <si>
-    <t>5B</t>
-  </si>
-  <si>
-    <t>Rejected by Ann…</t>
-  </si>
-  <si>
     <t>10B</t>
-  </si>
-  <si>
-    <t>Slow Rejection by Ann</t>
   </si>
   <si>
     <t>BET IS 500 for 2 weeks</t>
@@ -362,7 +387,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +412,19 @@
     <font>
       <b/>
       <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
@@ -731,13 +769,14 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -764,7 +803,7 @@
       </c>
       <c r="J2">
         <f>SUM('Calendar (2)'!B:B)</f>
-        <v>500</v>
+        <v>15000000600</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -804,7 +843,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -825,7 +864,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>500</v>
@@ -838,16 +877,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -855,18 +895,19 @@
         <v>42233</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>42234</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
+      <c r="B2">
+        <f>5*1000000000</f>
+        <v>5000000000</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -887,18 +928,19 @@
         <v>500</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>42238</v>
       </c>
-      <c r="B6" t="s">
-        <v>52</v>
+      <c r="B6">
+        <f>10*1000000000</f>
+        <v>10000000000</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -951,18 +993,80 @@
         <v>42248</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>42249</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>42250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>42251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>42252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>42253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>42254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>42255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>42256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>42257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>42258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>42259</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +1083,7 @@
         <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1043,31 +1147,15 @@
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/mtg debt.xlsx
+++ b/mtg debt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Debt (2)" sheetId="8" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="Debt" sheetId="4" r:id="rId4"/>
     <sheet name="Notes" sheetId="5" r:id="rId5"/>
     <sheet name="Calendar" sheetId="6" r:id="rId6"/>
+    <sheet name="Anne" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="debt" localSheetId="1">#REF!</definedName>
@@ -195,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>6.65 Dramoka dragon</t>
   </si>
@@ -378,6 +380,24 @@
   </si>
   <si>
     <t>Theory having these massive payouts for difficult ones increases prob that I do it.</t>
+  </si>
+  <si>
+    <t>Body lang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smile </t>
+  </si>
+  <si>
+    <t>Talk</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Slight +ve</t>
+  </si>
+  <si>
+    <t>Negative</t>
   </si>
 </sst>
 </file>
@@ -880,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1335,7 +1355,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,4 +1655,62 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>42249</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mtg debt.xlsx
+++ b/mtg debt.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Debt (2)" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="paid" localSheetId="0">'Debt (2)'!#REF!</definedName>
     <definedName name="paid">Debt!$C:$C</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -33,7 +33,32 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C17" authorId="0">
+    <comment ref="C13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+It was disapointing. M1. She didn't really give me an opportunity to say more. Turns her back straight away. Body position was decent near the end I think. She hung around when I was at the register… But meh.
+My theory of having a high score to increase odds is probably wrong. Man I need to wait a whole other week...I had alcohol at about 5am I think. I don't know.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +92,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0">
+    <comment ref="C13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0">
+    <comment ref="C22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0">
+    <comment ref="C24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0">
+    <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>6.65 Dramoka dragon</t>
   </si>
@@ -542,7 +567,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,7 +602,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -823,7 +848,7 @@
       </c>
       <c r="J2">
         <f>SUM('Calendar (2)'!B:B)</f>
-        <v>15000000600</v>
+        <v>15000000800</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -900,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,6 +1021,12 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>42245</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1661,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/mtg debt.xlsx
+++ b/mtg debt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Debt (2)" sheetId="8" r:id="rId1"/>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
